--- a/InventoryManagementForms/bin/Debug/net6.0-windows/Supplier.xlsx
+++ b/InventoryManagementForms/bin/Debug/net6.0-windows/Supplier.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Supplier ID</t>
   </si>
@@ -29,31 +29,16 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Supplier 1</t>
+    <t>test</t>
   </si>
   <si>
     <t>123 Main St.</t>
   </si>
   <si>
-    <t>555-123-4567</t>
+    <t>4567894561</t>
   </si>
   <si>
     <t>supplier1@example.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>0497484451</t>
-  </si>
-  <si>
-    <t>lg@hotmail.com</t>
-  </si>
-  <si>
-    <t>testnew</t>
-  </si>
-  <si>
-    <t>0456789459</t>
   </si>
 </sst>
 </file>
@@ -99,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -139,40 +124,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
